--- a/March'21/18.03.2021/Market Due.xlsx
+++ b/March'21/18.03.2021/Market Due.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="2" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -734,13 +734,13 @@
     <t>Mamun+Sopon</t>
   </si>
   <si>
-    <t>Till-07.00 PM</t>
-  </si>
-  <si>
     <t>18.03.2021</t>
   </si>
   <si>
     <t>Rony</t>
+  </si>
+  <si>
+    <t>Till-02.40 PM</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,6 +1227,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1317,8 +1320,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,28 +1643,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -1963,11 +1966,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="56">
         <f>SUM(B6:B28)</f>
         <v>59281</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="57"/>
     </row>
   </sheetData>
   <sortState ref="A6:C28">
@@ -2000,28 +2003,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2365,11 +2368,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>123427</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2400,28 +2403,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2772,11 +2775,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>120005</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2807,28 +2810,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3178,11 +3181,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>144667</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3213,28 +3216,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3596,11 +3599,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3642,7 +3645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -3657,28 +3660,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3693,13 +3696,13 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3710,7 +3713,7 @@
         <v>18448</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3721,7 +3724,7 @@
         <v>400</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3732,7 +3735,7 @@
         <v>5410</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3743,7 +3746,7 @@
         <v>10988</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3754,7 +3757,7 @@
         <v>1698</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3765,7 +3768,7 @@
         <v>4532</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3787,7 +3790,7 @@
         <v>5300</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -3808,7 +3811,7 @@
         <v>26253</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -3852,7 +3855,7 @@
         <v>26618</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -3874,7 +3877,7 @@
         <v>3100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -3918,7 +3921,7 @@
         <v>650</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -3962,7 +3965,7 @@
         <v>17891</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -3984,7 +3987,7 @@
         <v>12500</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4000,7 +4003,7 @@
         <v>4000</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4040,24 +4043,24 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>200038</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="19">
         <v>155608</v>
       </c>
       <c r="E29" s="19">
         <v>471614</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="43">
         <f>E29-C31</f>
         <v>427184</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="73">
+      <c r="C31" s="43">
         <f>B29-D29</f>
         <v>44430</v>
       </c>
@@ -4078,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,12 +4097,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="A1" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4123,15 +4126,11 @@
       <c r="A3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28">
-        <v>30</v>
-      </c>
-      <c r="C3" s="28">
-        <v>36</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28">
         <f>B3-C3</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="41"/>
     </row>
@@ -4142,12 +4141,10 @@
       <c r="B4" s="28">
         <v>10</v>
       </c>
-      <c r="C4" s="28">
-        <v>3</v>
-      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="41"/>
     </row>
@@ -4158,12 +4155,10 @@
       <c r="B5" s="28">
         <v>15</v>
       </c>
-      <c r="C5" s="28">
-        <v>5</v>
-      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>37</v>
@@ -4174,14 +4169,14 @@
         <v>42</v>
       </c>
       <c r="B6" s="28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" s="28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>80</v>
@@ -4192,14 +4187,14 @@
         <v>43</v>
       </c>
       <c r="B7" s="28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="41"/>
       <c r="G7" s="34"/>
@@ -4209,14 +4204,12 @@
         <v>44</v>
       </c>
       <c r="B8" s="28">
-        <v>10</v>
-      </c>
-      <c r="C8" s="28">
-        <v>10</v>
-      </c>
-      <c r="D8" s="29">
+        <v>5</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="37"/>
       <c r="G8" s="34"/>
@@ -4225,15 +4218,11 @@
       <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="28">
-        <v>5</v>
-      </c>
-      <c r="C9" s="28">
-        <v>6</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -4241,15 +4230,13 @@
       <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="28">
-        <v>10</v>
-      </c>
+      <c r="B10" s="28"/>
       <c r="C10" s="28">
-        <v>8</v>
-      </c>
-      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="37"/>
     </row>
@@ -4258,14 +4245,14 @@
         <v>47</v>
       </c>
       <c r="B11" s="28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C11" s="28">
         <v>5</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -4274,14 +4261,12 @@
         <v>48</v>
       </c>
       <c r="B12" s="28">
-        <v>20</v>
-      </c>
-      <c r="C12" s="28">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>78</v>
@@ -4292,14 +4277,14 @@
         <v>49</v>
       </c>
       <c r="B13" s="28">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C13" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>79</v>
@@ -4310,14 +4295,12 @@
         <v>50</v>
       </c>
       <c r="B14" s="28">
-        <v>15</v>
-      </c>
-      <c r="C14" s="28">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" s="37"/>
     </row>
@@ -4326,14 +4309,12 @@
         <v>51</v>
       </c>
       <c r="B15" s="28">
-        <v>5</v>
-      </c>
-      <c r="C15" s="28">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15" s="37"/>
     </row>
@@ -4342,14 +4323,14 @@
         <v>52</v>
       </c>
       <c r="B16" s="28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" s="28">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>81</v>
@@ -4359,15 +4340,13 @@
       <c r="A17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="28">
-        <v>5</v>
-      </c>
+      <c r="B17" s="28"/>
       <c r="C17" s="28">
-        <v>4</v>
-      </c>
-      <c r="D17" s="28">
+        <v>10</v>
+      </c>
+      <c r="D17" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>81</v>
@@ -4378,14 +4357,14 @@
         <v>54</v>
       </c>
       <c r="B18" s="28">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C18" s="28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="37"/>
     </row>
@@ -4394,14 +4373,12 @@
         <v>55</v>
       </c>
       <c r="B19" s="28">
-        <v>10</v>
-      </c>
-      <c r="C19" s="28">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C19" s="28"/>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="41"/>
     </row>
@@ -4410,14 +4387,14 @@
         <v>56</v>
       </c>
       <c r="B20" s="28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C20" s="28">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>82</v>
@@ -4428,14 +4405,14 @@
         <v>57</v>
       </c>
       <c r="B21" s="28">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C21" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E21" s="37"/>
     </row>
@@ -4444,14 +4421,14 @@
         <v>58</v>
       </c>
       <c r="B22" s="33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C22" s="28">
-        <v>16</v>
-      </c>
-      <c r="D22" s="33">
+        <v>10</v>
+      </c>
+      <c r="D22" s="74">
         <f>B22-C22</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>85</v>
@@ -4462,14 +4439,12 @@
         <v>59</v>
       </c>
       <c r="B23" s="28">
-        <v>15</v>
-      </c>
-      <c r="C23" s="28">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>83</v>
@@ -4481,15 +4456,15 @@
       </c>
       <c r="B24" s="39">
         <f>SUM(B3:B23)</f>
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="C24" s="39">
         <f>SUM(C3:C23)</f>
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D3:D23)</f>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E24" s="40"/>
     </row>
@@ -4519,10 +4494,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="27"/>
@@ -4878,12 +4853,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5237,28 +5212,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5584,11 +5559,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>124433</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5619,28 +5594,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5960,11 +5935,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>123495</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5995,28 +5970,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6348,11 +6323,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>112100</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6383,28 +6358,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6736,11 +6711,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>163436</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6771,28 +6746,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7128,11 +7103,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>128286</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7163,28 +7138,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7526,11 +7501,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>117101</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7561,28 +7536,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7926,11 +7901,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>121959</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7961,28 +7936,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -8331,11 +8306,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="70">
         <f>SUM(B6:B28)</f>
         <v>128644</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
